--- a/public/files/import_format/course_import.xlsx
+++ b/public/files/import_format/course_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TIJ\tij-admin\public\files\import_format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED12B9-063D-4B95-8591-7DAFDABB79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C42EFA-CA82-1042-A430-825CCF92A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
@@ -52,12 +52,16 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>sample@gmail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +95,14 @@
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,14 +122,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -415,9 +430,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{77A6D4B3-4811-914C-AD82-6BBCA8690E5D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/files/import_format/course_import.xlsx
+++ b/public/files/import_format/course_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhtm/develop/workspace/vinayama/tij/tij-admin/public/files/import_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C42EFA-CA82-1042-A430-825CCF92A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412D79B6-6E54-EE43-A933-CC25A01FB94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,29 +31,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コース</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Open Sans"/>
-        <family val="3"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t>sample@gmail.com</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sample@gmail.com</t>
+    <t>コースID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -61,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,26 +59,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Open Sans"/>
-      <family val="3"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -104,16 +66,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,15 +117,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -411,32 +426,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
